--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_3_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_3_39.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4055206.299296291</v>
+        <v>4128581.58828238</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>682213.8818051494</v>
+        <v>1169509.511665969</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7456093.186447995</v>
+        <v>7357815.411495335</v>
       </c>
     </row>
     <row r="11">
@@ -656,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>345.9342938839843</v>
       </c>
       <c r="G2" t="n">
-        <v>295.6830162006981</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -704,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -826,10 +828,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -874,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>189.5968436493441</v>
       </c>
       <c r="X4" t="n">
-        <v>136.1286387281321</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>13.4301842585257</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>131.0452991340065</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +992,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>155.8860385675338</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>67.41850321461156</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1105,16 +1107,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>255.7977767986749</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481167</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,16 +1189,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>270.7773459850756</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>125.872192856332</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1348,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>50.05665370612845</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>156.2174302415107</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1543,7 +1545,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -1576,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>158.0662359656502</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1588,10 +1590,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1673,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1771,16 +1773,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>82.93992391707286</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1828,10 +1830,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>66.14085215535403</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2005,19 +2007,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>276.0887312384349</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2096,10 +2098,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.287249111317</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>66.32203179238505</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,22 +2289,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>139.1537278750038</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2476,22 +2478,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>14.83730165918382</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5269768002176</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2609,7 +2611,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2710,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>8.070639042240128</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2764,19 +2766,19 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>203.5289278147283</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2849,7 +2851,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.7000900522966</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898715</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692849</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329056</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373692</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789545</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463131</v>
+        <v>74.84492871337284</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415212</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>129.7889198539626</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>153.4156709287486</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>218.1054622689367</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>184.0057531941873</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>218.3911082069507</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>157.5777652593965</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>150.4527632224541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3035,7 +3037,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722607</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329102</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373693</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463132</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>129.7889198539626</v>
+        <v>20.58581884348041</v>
       </c>
       <c r="T34" t="n">
-        <v>153.4156709287486</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>218.1054622689367</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>157.5777652593965</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3281,7 +3283,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
         <v>81.77913505274077</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463132</v>
+        <v>54.64484145105474</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415232</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>129.7889198539626</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>153.4156709287486</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>218.1054622689367</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>157.5777652593965</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>100.423698006726</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789557</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463133</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>129.7889198539626</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>153.4156709287486</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>218.1054622689367</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>157.5777652593965</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>53.7610350542741</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898715</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692849</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329056</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373692</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789545</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463131</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415212</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>129.7889198539626</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>153.4156709287486</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>218.1054622689368</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>157.5777652593965</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>48.07630641561418</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>203.8435192151917</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1799.76938401301</v>
+        <v>1534.318342165211</v>
       </c>
       <c r="C2" t="n">
-        <v>1430.806867072598</v>
+        <v>1534.318342165211</v>
       </c>
       <c r="D2" t="n">
-        <v>1072.541168465848</v>
+        <v>1534.318342165211</v>
       </c>
       <c r="E2" t="n">
-        <v>686.7529158676036</v>
+        <v>1148.530089566967</v>
       </c>
       <c r="F2" t="n">
-        <v>679.8074151184002</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
         <v>381.1377017843616</v>
@@ -4331,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>2189.908715988822</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W2" t="n">
-        <v>2189.908715988822</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="X2" t="n">
-        <v>2189.908715988822</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="Y2" t="n">
-        <v>1799.76938401301</v>
+        <v>1920.918182229333</v>
       </c>
     </row>
     <row r="3">
@@ -4407,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X4" t="n">
-        <v>590.6253087234725</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1359.546482223453</v>
+        <v>1675.109392681467</v>
       </c>
       <c r="C5" t="n">
-        <v>990.5839652830418</v>
+        <v>1306.146875741055</v>
       </c>
       <c r="D5" t="n">
-        <v>632.3182666762914</v>
+        <v>947.8811771343048</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762914</v>
+        <v>562.0929245360605</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4580,37 +4582,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2509.751412524467</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2509.751412524467</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2509.751412524467</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V5" t="n">
-        <v>2509.751412524467</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W5" t="n">
-        <v>2509.751412524467</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="X5" t="n">
-        <v>2136.285654263387</v>
+        <v>1675.109392681467</v>
       </c>
       <c r="Y5" t="n">
-        <v>1746.146322287575</v>
+        <v>1675.109392681467</v>
       </c>
     </row>
     <row r="6">
@@ -4635,25 +4637,25 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598709</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>438.9553738610025</v>
+        <v>211.4036268380754</v>
       </c>
       <c r="C7" t="n">
-        <v>438.9553738610025</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>438.9553738610025</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>291.0422802786094</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064346</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610025</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V7" t="n">
-        <v>438.9553738610025</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W7" t="n">
-        <v>438.9553738610025</v>
+        <v>211.4036268380754</v>
       </c>
       <c r="X7" t="n">
-        <v>438.9553738610025</v>
+        <v>211.4036268380754</v>
       </c>
       <c r="Y7" t="n">
-        <v>438.9553738610025</v>
+        <v>211.4036268380754</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>1645.450628940882</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>1276.48811200047</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177357</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036447</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036447</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4817,7 +4819,7 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
         <v>2544.691559791253</v>
@@ -4835,19 +4837,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>2035.589960916693</v>
       </c>
       <c r="X8" t="n">
-        <v>2368.607930856721</v>
+        <v>2035.589960916693</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>1645.450628940882</v>
       </c>
     </row>
     <row r="9">
@@ -4878,22 +4880,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598709</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>372.9958041606071</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064346</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064346</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064346</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064346</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064346</v>
+        <v>325.2978374347314</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064346</v>
+        <v>325.2978374347314</v>
       </c>
       <c r="X10" t="n">
-        <v>500.1394333084172</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y10" t="n">
-        <v>500.1394333084172</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5015,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
@@ -5030,22 +5032,22 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5063,10 +5065,10 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5081,10 +5083,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>841.8631140141293</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1141.200876391121</v>
+        <v>821.846685011157</v>
       </c>
       <c r="C13" t="n">
-        <v>972.2646934632137</v>
+        <v>821.846685011157</v>
       </c>
       <c r="D13" t="n">
-        <v>822.1480540508779</v>
+        <v>671.7300455988212</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473455</v>
+        <v>1339.253405946135</v>
       </c>
       <c r="U13" t="n">
-        <v>1298.996260473455</v>
+        <v>1339.253405946135</v>
       </c>
       <c r="V13" t="n">
-        <v>1298.996260473455</v>
+        <v>1339.253405946135</v>
       </c>
       <c r="W13" t="n">
-        <v>1298.996260473455</v>
+        <v>1049.836235909174</v>
       </c>
       <c r="X13" t="n">
-        <v>1298.996260473455</v>
+        <v>821.846685011157</v>
       </c>
       <c r="Y13" t="n">
-        <v>1298.996260473455</v>
+        <v>821.846685011157</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5273,34 +5275,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
@@ -5321,7 +5323,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>796.3635653766204</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1453.977845975555</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1029.666285013068</v>
+        <v>646.9375622247751</v>
       </c>
       <c r="C16" t="n">
-        <v>860.7301020851612</v>
+        <v>478.0013792968682</v>
       </c>
       <c r="D16" t="n">
-        <v>710.6134626728254</v>
+        <v>327.8847398845325</v>
       </c>
       <c r="E16" t="n">
-        <v>562.7003690904323</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F16" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>874.9271131227924</v>
       </c>
       <c r="V16" t="n">
-        <v>1498.916270557902</v>
+        <v>874.9271131227924</v>
       </c>
       <c r="W16" t="n">
-        <v>1498.916270557902</v>
+        <v>874.9271131227924</v>
       </c>
       <c r="X16" t="n">
-        <v>1432.107328986838</v>
+        <v>646.9375622247751</v>
       </c>
       <c r="Y16" t="n">
-        <v>1211.314749843308</v>
+        <v>646.9375622247751</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823779</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5531,34 +5533,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P18" t="n">
-        <v>2358.217138262064</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>544.6416868225887</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>544.6416868225887</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387592</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011506</v>
+        <v>1020.118754172006</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952637</v>
+        <v>765.4342659661188</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>765.4342659661188</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>765.4342659661188</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>544.6416868225887</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805475</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823788</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5828,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L21" t="n">
-        <v>796.3635653766202</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M21" t="n">
-        <v>1103.683698656582</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N21" t="n">
-        <v>1433.546326320615</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>738.7219969042607</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>738.7219969042607</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>671.7300455988212</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011506</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>920.3704617345004</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>920.3704617345004</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>920.3704617345004</v>
       </c>
     </row>
     <row r="23">
@@ -5966,10 +5968,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
@@ -5978,58 +5980,58 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6063,28 +6065,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L24" t="n">
-        <v>1206.718781115524</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M24" t="n">
-        <v>1514.038914395485</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N24" t="n">
-        <v>1843.901542059518</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O24" t="n">
-        <v>2123.441607278215</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>3961.672080369934</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>3792.735897442027</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>3792.735897442027</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>3777.748724048912</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>3777.748724048912</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>3609.573402368732</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598087</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>4437.14914771935</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011507</v>
+        <v>4437.14914771935</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952638</v>
+        <v>4182.464659513464</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>4182.464659513464</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028587</v>
+        <v>4182.464659513464</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028587</v>
+        <v>3961.672080369934</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6218,25 +6220,25 @@
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6257,19 +6259,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C27" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D27" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E27" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J27" t="n">
-        <v>233.7852434110091</v>
+        <v>2375.989236263798</v>
       </c>
       <c r="K27" t="n">
-        <v>644.6755122555218</v>
+        <v>2786.879505108311</v>
       </c>
       <c r="L27" t="n">
-        <v>891.4406401619858</v>
+        <v>3400.7765748652</v>
       </c>
       <c r="M27" t="n">
-        <v>1198.760773441947</v>
+        <v>3708.096708145162</v>
       </c>
       <c r="N27" t="n">
-        <v>1528.62340110598</v>
+        <v>4037.959335809194</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>4360.722674916368</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>4565.745155698578</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R27" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S27" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T27" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U27" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V27" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W27" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X27" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y27" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>216.9038434870658</v>
+        <v>3739.626168222635</v>
       </c>
       <c r="C28" t="n">
-        <v>208.7516828383384</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="D28" t="n">
-        <v>208.7516828383384</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="E28" t="n">
-        <v>208.7516828383384</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="F28" t="n">
-        <v>208.7516828383384</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="G28" t="n">
-        <v>208.7516828383384</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="U28" t="n">
-        <v>1209.787631771461</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="V28" t="n">
-        <v>955.1031435655738</v>
+        <v>4431.484382233366</v>
       </c>
       <c r="W28" t="n">
-        <v>665.6859735286132</v>
+        <v>4142.067212196405</v>
       </c>
       <c r="X28" t="n">
-        <v>437.6964226305959</v>
+        <v>4142.067212196405</v>
       </c>
       <c r="Y28" t="n">
-        <v>216.9038434870658</v>
+        <v>3921.274633052875</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
@@ -6461,7 +6463,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
         <v>889.2841917514082</v>
@@ -6479,10 +6481,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6494,19 +6496,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C30" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D30" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E30" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>2649.889045452863</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341673</v>
+        <v>2896.654173359327</v>
       </c>
       <c r="M30" t="n">
-        <v>841.8631140141288</v>
+        <v>3665.022319751788</v>
       </c>
       <c r="N30" t="n">
-        <v>1171.725741678162</v>
+        <v>3994.884947415821</v>
       </c>
       <c r="O30" t="n">
-        <v>1841.189502980821</v>
+        <v>4360.722674916368</v>
       </c>
       <c r="P30" t="n">
-        <v>2361.490124716568</v>
+        <v>4565.745155698578</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R30" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S30" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T30" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U30" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V30" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W30" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X30" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y30" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108328</v>
+        <v>3982.180927373294</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229671</v>
+        <v>3982.180927373294</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506724</v>
+        <v>3832.064287960959</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083204</v>
+        <v>3832.064287960959</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504512</v>
+        <v>3685.174340463048</v>
       </c>
       <c r="G31" t="n">
-        <v>221.5295092103129</v>
+        <v>3685.174340463048</v>
       </c>
       <c r="H31" t="n">
-        <v>139.9315917982973</v>
+        <v>3534.756332010992</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J31" t="n">
-        <v>177.05035515254</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K31" t="n">
-        <v>394.6863306254957</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L31" t="n">
-        <v>709.8489468649691</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M31" t="n">
-        <v>1048.866260860496</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N31" t="n">
-        <v>1386.860941116388</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O31" t="n">
-        <v>1688.186490350129</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P31" t="n">
-        <v>1932.236826184156</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q31" t="n">
-        <v>2038.520840384656</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R31" t="n">
-        <v>1996.265827986523</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S31" t="n">
-        <v>1865.165908942116</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="T31" t="n">
-        <v>1710.200584771663</v>
+        <v>4525.994054365623</v>
       </c>
       <c r="U31" t="n">
-        <v>1489.892037025262</v>
+        <v>4236.865415579181</v>
       </c>
       <c r="V31" t="n">
-        <v>1304.027639859417</v>
+        <v>3982.180927373294</v>
       </c>
       <c r="W31" t="n">
-        <v>1083.430560862497</v>
+        <v>3982.180927373294</v>
       </c>
       <c r="X31" t="n">
-        <v>924.2611010045205</v>
+        <v>3982.180927373294</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.2886129010315</v>
+        <v>3982.180927373294</v>
       </c>
     </row>
     <row r="32">
@@ -6680,55 +6682,55 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3224.712326690732</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C33" t="n">
-        <v>3050.259297409605</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D33" t="n">
-        <v>2901.324887748354</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>2742.087432742898</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>2595.552874769783</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>2458.626196373968</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>2362.681322805656</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>2334.49815909844</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>2471.066311049162</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
-        <v>2881.956579893675</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>3128.721707800139</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M33" t="n">
-        <v>3436.0418410801</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N33" t="n">
-        <v>3765.904468744133</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O33" t="n">
-        <v>4045.44453396283</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P33" t="n">
-        <v>4565.745155698577</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S33" t="n">
-        <v>4720.948468098066</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T33" t="n">
-        <v>4526.033852021844</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U33" t="n">
-        <v>4297.928927641231</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>4062.776819409488</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W33" t="n">
-        <v>3808.539462681287</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X33" t="n">
-        <v>3600.687962475754</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y33" t="n">
-        <v>3392.9276637108</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108334</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506729</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083209</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860496</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>1386.860941116388</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.186490350129</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184156</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986523</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1478.122514150346</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771663</v>
+        <v>1254.337098939852</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>965.2084601534104</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>965.2084601534104</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862497</v>
+        <v>675.7912901164498</v>
       </c>
       <c r="X34" t="n">
-        <v>924.261101004521</v>
+        <v>447.8017392184324</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.288612901032</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7011,25 +7013,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>233.7852434110091</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>644.6755122555218</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L36" t="n">
-        <v>891.4406401619858</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M36" t="n">
-        <v>1198.760773441947</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N36" t="n">
-        <v>1528.62340110598</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108331</v>
+        <v>3811.660159413163</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229672</v>
+        <v>3811.660159413163</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506726</v>
+        <v>3811.660159413163</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083205</v>
+        <v>3811.660159413163</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>3664.770211915252</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>3664.770211915252</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>3514.352203463196</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649692</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860496</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N37" t="n">
-        <v>1386.860941116388</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.186490350129</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184156</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986523</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771663</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862497</v>
+        <v>4260.44228945471</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045207</v>
+        <v>4032.452738556693</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010317</v>
+        <v>3811.660159413163</v>
       </c>
     </row>
     <row r="38">
@@ -7163,7 +7165,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822463</v>
@@ -7193,7 +7195,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014293</v>
@@ -7251,19 +7253,19 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>233.7852434110091</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>644.6755122555218</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>891.4406401619858</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M39" t="n">
-        <v>1198.760773441947</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N39" t="n">
-        <v>1528.62340110598</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O39" t="n">
         <v>1808.163466324677</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108332</v>
+        <v>345.5451177528689</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229674</v>
+        <v>345.5451177528689</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506728</v>
+        <v>345.5451177528689</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083207</v>
+        <v>345.5451177528689</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504514</v>
+        <v>198.6551702549586</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103131</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649692</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860496</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116388</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.186490350129</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184156</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942116</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771663</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862497</v>
+        <v>755.183133481126</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045208</v>
+        <v>527.1935825831087</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010318</v>
+        <v>527.1935825831087</v>
       </c>
     </row>
     <row r="41">
@@ -7388,22 +7390,22 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028587</v>
@@ -7430,7 +7432,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014293</v>
@@ -7488,28 +7490,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>549.5984374701561</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L42" t="n">
-        <v>891.4406401619858</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M42" t="n">
-        <v>1198.760773441947</v>
+        <v>1396.107276203138</v>
       </c>
       <c r="N42" t="n">
-        <v>1528.62340110598</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108328</v>
+        <v>506.7814158330673</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229671</v>
+        <v>506.7814158330673</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506724</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083204</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254956</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860496</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116388</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.186490350129</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184156</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942116</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771663</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862497</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="X43" t="n">
-        <v>924.261101004521</v>
+        <v>781.8780707889955</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>561.0854916454654</v>
       </c>
     </row>
     <row r="44">
@@ -7622,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
@@ -7637,10 +7639,10 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028587</v>
@@ -7664,34 +7666,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7728,13 +7730,13 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>339.7502131046252</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341674</v>
+        <v>953.6472828615139</v>
       </c>
       <c r="M45" t="n">
-        <v>1247.466478653857</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N45" t="n">
         <v>2051.878056918008</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028587</v>
+        <v>4085.456965641975</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028587</v>
+        <v>4036.895039969637</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028587</v>
+        <v>3886.778400557302</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028587</v>
+        <v>3738.865306974908</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>3738.865306974908</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>3570.689985294729</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>3570.689985294729</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N46" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O46" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011507</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952638</v>
+        <v>4495.094981370232</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>4495.094981370232</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028587</v>
+        <v>4267.105430472215</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028587</v>
+        <v>4267.105430472215</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270189</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8304,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8529,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270189</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8544,7 +8546,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360591</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8775,22 +8777,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>360.5026862907247</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8945,7 +8947,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599039</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9006,28 +9008,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>20.63789864135379</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172073</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9185,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9258,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q18" t="n">
-        <v>180.0237016735871</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9480,28 +9482,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>409.7003683229574</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>96.03744927814699</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9644,7 +9646,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9714,28 +9716,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>306.1147370139962</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445218</v>
@@ -9875,7 +9877,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>324.145412571165</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9951,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>96.03744927814714</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9966,10 +9968,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>43.65987261462323</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10133,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10197,19 +10199,19 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>87.16935584025327</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>176.7176547498453</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445218</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10425,28 +10427,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>96.03744927814591</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>176.7176547498455</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445218</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10607,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>96.03744927814711</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10677,10 +10679,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>43.65987261462533</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10841,10 +10843,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599068</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>96.03744927814711</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10914,7 +10916,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>360.5026862907255</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11078,10 +11080,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599068</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,16 +11138,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>96.03744927814716</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>62.91120742583809</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11157,10 +11159,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11312,13 +11314,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714841</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,16 +11378,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>52.49733361305246</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>409.7003683229581</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -23413,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>23.61454994042657</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23431,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23464,10 +23466,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>63.48132509273907</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -23476,10 +23478,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,16 +23661,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>63.49403872949631</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23698,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23716,10 +23718,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>159.5688032336831</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23893,19 +23895,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23938,25 +23940,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>10.1486211601424</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>82.29344122582731</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,22 +24177,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>82.39383318338548</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24364,22 +24366,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>131.5966609873853</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24412,25 +24414,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338567</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>159.1761820563877</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24652,19 +24654,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>48.60871550909974</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>35.57431675089916</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24898,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25078,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>177.3349911401228</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25132,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>55.77440401321726</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,13 +25365,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25549,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>66.06987045665163</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25609,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25783,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>126.0709451276632</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25795,13 +25797,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25831,22 +25833,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26020,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>119.1705146830136</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>82.39383318338568</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>627481.8564897437</v>
+        <v>627481.8564897438</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>627481.8564897437</v>
+        <v>627481.8564897438</v>
       </c>
     </row>
     <row r="7">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>657694.1855411147</v>
+        <v>627481.8564897438</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>657694.1855411147</v>
+        <v>627481.8564897436</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>657694.1855411147</v>
+        <v>627481.8564897437</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>657694.1855411147</v>
+        <v>627481.8564897437</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>657694.1855411147</v>
+        <v>627481.8564897439</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>627481.8564897437</v>
+        <v>627481.8564897438</v>
       </c>
     </row>
   </sheetData>
@@ -26314,43 +26316,43 @@
         <v>800515.7256176764</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176765</v>
+        <v>800515.7256176763</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176765</v>
+        <v>800515.7256176762</v>
       </c>
       <c r="E2" t="n">
-        <v>762506.6664885328</v>
+        <v>762506.6664885331</v>
       </c>
       <c r="F2" t="n">
-        <v>762506.6664885327</v>
+        <v>762506.6664885323</v>
       </c>
       <c r="G2" t="n">
-        <v>762506.6664885323</v>
+        <v>762506.6664885324</v>
       </c>
       <c r="H2" t="n">
-        <v>762506.6664885322</v>
+        <v>762506.6664885324</v>
       </c>
       <c r="I2" t="n">
         <v>762506.6664885323</v>
       </c>
       <c r="J2" t="n">
-        <v>762506.6664885322</v>
+        <v>762506.6664885323</v>
       </c>
       <c r="K2" t="n">
-        <v>800515.7256176765</v>
+        <v>762506.6664885323</v>
       </c>
       <c r="L2" t="n">
-        <v>800515.7256176764</v>
+        <v>762506.6664885323</v>
       </c>
       <c r="M2" t="n">
-        <v>800515.7256176767</v>
+        <v>762506.6664885324</v>
       </c>
       <c r="N2" t="n">
-        <v>800515.7256176767</v>
+        <v>762506.6664885324</v>
       </c>
       <c r="O2" t="n">
-        <v>800515.7256176767</v>
+        <v>762506.6664885326</v>
       </c>
       <c r="P2" t="n">
         <v>762506.6664885324</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>54505.51210371254</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26427,34 +26429,34 @@
         <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="H4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
+        <v>22174.60758687071</v>
+      </c>
+      <c r="J4" t="n">
+        <v>22174.6075868707</v>
+      </c>
+      <c r="K4" t="n">
+        <v>22174.60758687071</v>
+      </c>
+      <c r="L4" t="n">
+        <v>22174.60758687071</v>
+      </c>
+      <c r="M4" t="n">
+        <v>22174.60758687071</v>
+      </c>
+      <c r="N4" t="n">
+        <v>22174.60758687073</v>
+      </c>
+      <c r="O4" t="n">
         <v>22174.60758687072</v>
-      </c>
-      <c r="J4" t="n">
-        <v>22174.60758687071</v>
-      </c>
-      <c r="K4" t="n">
-        <v>44593.39482819121</v>
-      </c>
-      <c r="L4" t="n">
-        <v>44593.39482819125</v>
-      </c>
-      <c r="M4" t="n">
-        <v>44593.3948281912</v>
-      </c>
-      <c r="N4" t="n">
-        <v>44593.3948281912</v>
-      </c>
-      <c r="O4" t="n">
-        <v>44593.39482819121</v>
       </c>
       <c r="P4" t="n">
         <v>22174.60758687072</v>
@@ -26470,43 +26472,43 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="I5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="F5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>97715.10582002539</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002538</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.1058200254</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26519,46 +26521,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-37944.09944680191</v>
+        <v>-37944.09944680202</v>
       </c>
       <c r="C6" t="n">
-        <v>552023.7797677426</v>
+        <v>552023.7797677425</v>
       </c>
       <c r="D6" t="n">
-        <v>552023.7797677426</v>
+        <v>552023.7797677424</v>
       </c>
       <c r="E6" t="n">
-        <v>123184.6964760496</v>
+        <v>123184.6964760495</v>
       </c>
       <c r="F6" t="n">
-        <v>648344.7329529454</v>
+        <v>648344.7329529451</v>
       </c>
       <c r="G6" t="n">
-        <v>648344.7329529451</v>
+        <v>648344.7329529452</v>
       </c>
       <c r="H6" t="n">
-        <v>648344.7329529449</v>
+        <v>648344.7329529452</v>
       </c>
       <c r="I6" t="n">
-        <v>648344.7329529451</v>
+        <v>648344.7329529452</v>
       </c>
       <c r="J6" t="n">
         <v>471921.513760352</v>
       </c>
       <c r="K6" t="n">
-        <v>603701.7128657474</v>
+        <v>648344.7329529451</v>
       </c>
       <c r="L6" t="n">
-        <v>658207.2249694597</v>
+        <v>648344.7329529451</v>
       </c>
       <c r="M6" t="n">
-        <v>523406.209735623</v>
+        <v>513543.717719108</v>
       </c>
       <c r="N6" t="n">
-        <v>658207.2249694602</v>
+        <v>648344.7329529452</v>
       </c>
       <c r="O6" t="n">
-        <v>658207.2249694602</v>
+        <v>648344.7329529453</v>
       </c>
       <c r="P6" t="n">
         <v>648344.7329529452</v>
@@ -26710,19 +26712,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26735,25 +26737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
-      <c r="C3" t="n">
-        <v>377.7436642170868</v>
-      </c>
       <c r="D3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
@@ -26790,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="D4" t="n">
         <v>674.2872727545557</v>
-      </c>
-      <c r="D4" t="n">
-        <v>674.2872727545558</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>60.94175185772713</v>
       </c>
       <c r="G2" t="n">
-        <v>118.1011538200968</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27424,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -27546,10 +27548,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27558,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27594,16 +27596,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>96.92615468724691</v>
       </c>
       <c r="X4" t="n">
-        <v>89.58101666090505</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,16 +27624,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>393.4458614831858</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>43.37041367496499</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27682,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,19 +27776,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>11.36078253109406</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>78.00254480831968</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27795,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853698</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,25 +27818,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491428</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>98.88526482200803</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,16 +27909,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>98.95375469339348</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.95978732560532</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28032,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853698</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28068,16 +28070,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>175.6530016829087</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,43 +31284,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,25 +31460,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31519,43 +31521,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,25 +31697,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31926,10 +31928,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31938,19 +31940,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32163,10 +32165,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32175,19 +32177,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,10 +32402,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32412,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,10 +32639,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32649,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624592</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35106,10 +35108,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839194</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35343,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,28 +35412,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>693.6972596887376</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,28 +35649,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502041</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>353.8324720393667</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415071</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,25 +35965,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q18" t="n">
-        <v>268.0367344586612</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,28 +36123,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734238</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O21" t="n">
-        <v>378.4011515192551</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36364,7 +36366,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>639.309310412009</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36595,7 +36597,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
@@ -36671,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>137.9476282330538</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504662</v>
@@ -36686,10 +36688,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>326.0235748557313</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36853,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
         <v>150.5754385879392</v>
@@ -36917,19 +36919,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>369.5330580813614</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
-        <v>264.7306875349194</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.6396602952062</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>219.8343186595512</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>341.4087679352443</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>304.3692416502435</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>246.5154907414414</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>107.3575901015154</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K32" t="n">
         <v>528.689756130333</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>137.9476282330526</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>487.1420318003117</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P33" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595512</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>107.3575901015154</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K35" t="n">
         <v>528.689756130333</v>
@@ -37327,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,13 +37384,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>137.9476282330538</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504662</v>
@@ -37397,10 +37399,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>326.0235748557334</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520618</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595512</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>107.3575901015154</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37561,10 +37563,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502069</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>137.9476282330538</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
@@ -37634,7 +37636,7 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>642.8663885318336</v>
       </c>
       <c r="P39" t="n">
         <v>525.5561835714618</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520618</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595512</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>107.3575901015154</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37798,10 +37800,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502069</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,16 +37858,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>345.2951542341714</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>373.3355844763043</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980128</v>
@@ -37877,10 +37879,10 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.6396602952062</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595512</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>107.3575901015154</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38032,13 +38034,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109137</v>
       </c>
       <c r="Q44" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,16 +38098,16 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>203.0727722009917</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>720.1247453734243</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411081</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_3_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_3_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4121564.573390666</v>
+        <v>4126503.8362397</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800625</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665969</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -828,10 +828,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>37.83808333974875</v>
+        <v>25.31590541686235</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>17.57786078919927</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>29.43357108566505</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1068,16 +1068,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>30.60408762095413</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>14.52687838733164</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>5.983388191319379</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>5.983388191319154</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>30.60408762095441</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634814</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505273999</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1536,19 +1536,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>55.90105220442312</v>
       </c>
       <c r="U13" t="n">
-        <v>224.8952567231525</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338503</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,13 +1767,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1815,16 +1815,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V16" t="n">
-        <v>53.98383637884901</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>115.526976800218</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274068</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T21" t="n">
         <v>192.9654699154601</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2298,7 +2298,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>169.7438101404429</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2529,10 +2529,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>139.1537278750042</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151922</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T27" t="n">
         <v>192.9654699154601</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>203.8435192151923</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>115.5269768002181</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T30" t="n">
         <v>192.9654699154601</v>
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -3003,22 +3003,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>24.09124482852441</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>143.3158222056522</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3094,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784722</v>
+        <v>369.7311006784703</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T33" t="n">
         <v>192.9654699154601</v>
@@ -3240,7 +3240,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>139.153727875004</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T36" t="n">
         <v>192.9654699154601</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>115.5269768002185</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>115.5269768002181</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T39" t="n">
         <v>192.9654699154601</v>
@@ -3714,10 +3714,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750042</v>
       </c>
       <c r="U40" t="n">
-        <v>203.8435192151925</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T42" t="n">
         <v>192.9654699154601</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>33.35146980185947</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T45" t="n">
         <v>192.9654699154601</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>115.5269768002185</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750042</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4330,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4400,7 +4400,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4409,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C4" t="n">
-        <v>559.1928012785273</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D4" t="n">
-        <v>409.0761618661916</v>
+        <v>227.4276970359519</v>
       </c>
       <c r="E4" t="n">
-        <v>261.1630682837985</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1610.120910258947</v>
+        <v>1209.912517095719</v>
       </c>
       <c r="C5" t="n">
-        <v>1241.158393318536</v>
+        <v>840.9500001553076</v>
       </c>
       <c r="D5" t="n">
-        <v>882.8926947117852</v>
+        <v>482.6843015485571</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>482.6843015485571</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>71.69839675894957</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4570,16 +4570,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4594,25 +4594,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2667.418211133712</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2667.418211133712</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2667.418211133712</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V5" t="n">
-        <v>2336.355323790141</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="W5" t="n">
-        <v>1983.586668520027</v>
+        <v>1583.378275356799</v>
       </c>
       <c r="X5" t="n">
-        <v>1610.120910258947</v>
+        <v>1209.912517095719</v>
       </c>
       <c r="Y5" t="n">
-        <v>1610.120910258947</v>
+        <v>1209.912517095719</v>
       </c>
     </row>
     <row r="6">
@@ -4646,16 +4646,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C7" t="n">
-        <v>559.1928012785276</v>
+        <v>529.7758821321493</v>
       </c>
       <c r="D7" t="n">
-        <v>409.0761618661918</v>
+        <v>379.6592427198135</v>
       </c>
       <c r="E7" t="n">
-        <v>261.1630682837987</v>
+        <v>231.7461491374204</v>
       </c>
       <c r="F7" t="n">
-        <v>114.2731207858883</v>
+        <v>84.85620163951003</v>
       </c>
       <c r="G7" t="n">
-        <v>114.2731207858883</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>114.2731207858883</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="8">
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>802.0401021781393</v>
+        <v>808.0839286340174</v>
       </c>
       <c r="C8" t="n">
-        <v>433.0775852377275</v>
+        <v>439.1214116936057</v>
       </c>
       <c r="D8" t="n">
-        <v>74.81188663097703</v>
+        <v>80.85571308685519</v>
       </c>
       <c r="E8" t="n">
         <v>74.81188663097703</v>
@@ -4807,7 +4807,7 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224076</v>
@@ -4816,7 +4816,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4837,19 +4837,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2636.076575092838</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2305.013687749267</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W8" t="n">
-        <v>1952.245032479153</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X8" t="n">
-        <v>1578.779274218073</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y8" t="n">
-        <v>1188.639942242261</v>
+        <v>1194.683768698139</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4883,43 +4883,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5026,25 +5026,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822454</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5059,13 +5059,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231264</v>
@@ -5074,19 +5074,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5117,16 +5117,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277035</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>563.7235867775513</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M12" t="n">
         <v>1332.091733170013</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028587</v>
+        <v>524.8400981009108</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028587</v>
+        <v>524.8400981009108</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028587</v>
+        <v>524.8400981009108</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028587</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557903</v>
+        <v>1331.375457822331</v>
       </c>
       <c r="U13" t="n">
-        <v>1271.749344574921</v>
+        <v>1042.246819035889</v>
       </c>
       <c r="V13" t="n">
-        <v>1017.064856369034</v>
+        <v>1042.246819035889</v>
       </c>
       <c r="W13" t="n">
-        <v>727.647686332073</v>
+        <v>752.8296489989282</v>
       </c>
       <c r="X13" t="n">
-        <v>499.6581354340557</v>
+        <v>524.8400981009108</v>
       </c>
       <c r="Y13" t="n">
-        <v>278.8655562905255</v>
+        <v>524.8400981009108</v>
       </c>
     </row>
     <row r="14">
@@ -5275,13 +5275,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823788</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5302,10 +5302,10 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5354,16 +5354,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>316.9584588710871</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>563.7235867775513</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M15" t="n">
         <v>1332.091733170013</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>414.0663679705859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347409</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609669</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V16" t="n">
-        <v>931.4730889055638</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W16" t="n">
-        <v>642.0559188686033</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>414.0663679705859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>414.0663679705859</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5512,55 +5512,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5591,25 +5591,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571611</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636253</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
         <v>2317.834075963124</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011507</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952638</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5740,43 +5740,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5828,22 +5828,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571611</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L21" t="n">
-        <v>1196.088769018223</v>
+        <v>1196.088769018224</v>
       </c>
       <c r="M21" t="n">
-        <v>1503.408902298184</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N21" t="n">
-        <v>1833.271529962217</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O21" t="n">
         <v>2112.811595180915</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.210845262961</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765193</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952638</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5980,19 +5980,19 @@
         <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805464</v>
+        <v>488.1932370805457</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6007,7 +6007,7 @@
         <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6056,25 +6056,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571611</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636254</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
         <v>1228.513823643587</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6177,22 +6177,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011507</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952638</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6214,43 +6214,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514075</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6293,25 +6293,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571611</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636254</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M27" t="n">
         <v>1228.513823643587</v>
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.210845262961</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011507</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952638</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6451,34 +6451,34 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
         <v>4454.632848899128</v>
@@ -6487,13 +6487,13 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6539,16 +6539,16 @@
         <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
         <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636253</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M30" t="n">
         <v>1228.513823643587</v>
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.210845262961</v>
+        <v>1274.661669737571</v>
       </c>
       <c r="U31" t="n">
-        <v>786.0822064765193</v>
+        <v>985.5330309511296</v>
       </c>
       <c r="V31" t="n">
-        <v>531.3977182706325</v>
+        <v>985.5330309511296</v>
       </c>
       <c r="W31" t="n">
-        <v>241.9805482336719</v>
+        <v>696.115860914169</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>468.1263100161517</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="32">
@@ -6697,16 +6697,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028591</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6715,31 +6715,31 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899129</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207832</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014296</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231267</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141871</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465305</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121734</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.52631485162</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X32" t="n">
         <v>3205.060556590537</v>
@@ -6755,37 +6755,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C33" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D33" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
         <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358149</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028593</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126483</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571611</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636254</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M33" t="n">
         <v>1228.513823643587</v>
@@ -6815,7 +6815,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W33" t="n">
         <v>1571.258395043133</v>
@@ -6834,40 +6834,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028593</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028593</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028593</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028593</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028593</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028593</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028593</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028593</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6888,22 +6888,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1158.436939387593</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U34" t="n">
-        <v>869.3083006011508</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952639</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W34" t="n">
-        <v>325.2066423583033</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028593</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028593</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6937,10 +6937,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6970,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7016,13 +7016,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
         <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636253</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M36" t="n">
         <v>1228.513823643587</v>
@@ -7095,16 +7095,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7122,22 +7122,22 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T37" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952637</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="Y37" t="n">
         <v>97.21709146028584</v>
@@ -7162,22 +7162,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
@@ -7201,10 +7201,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
         <v>4262.3578574653</v>
@@ -7253,13 +7253,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
         <v>674.428562457161</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636253</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M39" t="n">
         <v>1228.513823643587</v>
@@ -7332,16 +7332,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7362,7 +7362,7 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.210845262961</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
         <v>869.3083006011506</v>
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
         <v>4454.632848899128</v>
@@ -7447,16 +7447,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7490,13 +7490,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
         <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636253</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M42" t="n">
         <v>1228.513823643587</v>
@@ -7569,16 +7569,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7593,22 +7593,22 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119729</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>964.1357418247867</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U43" t="n">
-        <v>675.0071030383449</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V43" t="n">
-        <v>420.322614832458</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W43" t="n">
-        <v>130.9054447954974</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X43" t="n">
         <v>97.21709146028584</v>
@@ -7648,10 +7648,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
@@ -7727,13 +7727,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
         <v>674.428562457161</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636253</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M45" t="n">
         <v>1228.513823643587</v>
@@ -7745,10 +7745,10 @@
         <v>1837.916516526317</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7806,16 +7806,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7833,7 +7833,7 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S46" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
         <v>1158.436939387592</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8072,13 +8072,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>435.923890002883</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747073</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8774,7 +8774,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>29.4753596397814</v>
+        <v>29.47535963978231</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8929,7 +8929,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711639</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -9008,10 +9008,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>29.47535963978146</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>29.47535963978231</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>277.6717966208057</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298099</v>
+        <v>65.71641987298298</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9485,7 +9485,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>277.6717966208053</v>
+        <v>277.6717966208073</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208054</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9877,7 +9877,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711636</v>
+        <v>324.145412571163</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208054</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298008</v>
+        <v>65.71641987298014</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208054</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208054</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928303</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776741</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928303</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208054</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298008</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208054</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928303</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208054</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23424,19 +23424,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>165.6465088539661</v>
       </c>
       <c r="U13" t="n">
-        <v>61.34209567542487</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23655,13 +23655,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23703,16 +23703,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V16" t="n">
-        <v>198.153806944979</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>82.39383318338523</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24177,7 +24177,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>82.39383318338506</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24417,10 +24417,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>82.39383318338503</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>82.39383318338511</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24651,13 +24651,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>82.393833183385</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>103.0576765518767</v>
       </c>
     </row>
     <row r="29">
@@ -24843,7 +24843,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24891,22 +24891,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>197.4563162298649</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>82.393833183385</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25128,19 +25128,19 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
         <v>82.39383318338525</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
-      </c>
-      <c r="X34" t="n">
-        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25362,7 +25362,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>82.39383318338477</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>103.0576765518767</v>
       </c>
     </row>
     <row r="38">
@@ -25602,10 +25602,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>82.39383318338503</v>
       </c>
       <c r="U40" t="n">
-        <v>82.39383318338488</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>192.3581855871777</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26073,10 +26073,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>82.39383318338477</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>82.39383318338503</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>627481.8564897437</v>
+        <v>627481.8564897438</v>
       </c>
     </row>
     <row r="6">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>627481.8564897437</v>
+        <v>627481.8564897438</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>627481.8564897437</v>
+        <v>627481.8564897438</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>627481.8564897437</v>
+        <v>627481.8564897438</v>
       </c>
     </row>
     <row r="14">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176762</v>
+        <v>800515.7256176765</v>
       </c>
       <c r="C2" t="n">
+        <v>800515.7256176764</v>
+      </c>
+      <c r="D2" t="n">
         <v>800515.7256176763</v>
       </c>
-      <c r="D2" t="n">
-        <v>800515.725617676</v>
-      </c>
       <c r="E2" t="n">
-        <v>762506.6664885322</v>
+        <v>762506.6664885323</v>
       </c>
       <c r="F2" t="n">
-        <v>762506.6664885323</v>
+        <v>762506.6664885324</v>
       </c>
       <c r="G2" t="n">
-        <v>762506.6664885322</v>
+        <v>762506.6664885321</v>
       </c>
       <c r="H2" t="n">
-        <v>762506.6664885323</v>
+        <v>762506.6664885326</v>
       </c>
       <c r="I2" t="n">
         <v>762506.6664885322</v>
       </c>
       <c r="J2" t="n">
-        <v>762506.6664885323</v>
+        <v>762506.6664885322</v>
       </c>
       <c r="K2" t="n">
         <v>762506.6664885321</v>
       </c>
       <c r="L2" t="n">
-        <v>762506.6664885321</v>
+        <v>762506.666488532</v>
       </c>
       <c r="M2" t="n">
-        <v>762506.6664885321</v>
+        <v>762506.666488532</v>
       </c>
       <c r="N2" t="n">
-        <v>762506.6664885321</v>
+        <v>762506.6664885323</v>
       </c>
       <c r="O2" t="n">
-        <v>762506.6664885321</v>
+        <v>762506.666488532</v>
       </c>
       <c r="P2" t="n">
-        <v>762506.6664885321</v>
+        <v>762506.6664885323</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
-        <v>2.60042306972432e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.567329602243263e-10</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
@@ -26395,7 +26395,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.301849235664122e-10</v>
+        <v>1.726386926748091e-10</v>
       </c>
       <c r="M3" t="n">
         <v>134801.015233837</v>
@@ -26426,19 +26426,19 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687067</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687065</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="I4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
         <v>22174.6075868707</v>
@@ -26447,19 +26447,19 @@
         <v>22174.60758687069</v>
       </c>
       <c r="L4" t="n">
-        <v>22174.60758687057</v>
+        <v>22174.60758687065</v>
       </c>
       <c r="M4" t="n">
-        <v>22174.60758687069</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="N4" t="n">
-        <v>22174.60758687069</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="O4" t="n">
-        <v>22174.60758687069</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="P4" t="n">
-        <v>22174.60758687069</v>
+        <v>22174.6075868707</v>
       </c>
     </row>
     <row r="5">
@@ -26478,28 +26478,28 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="F5" t="n">
-        <v>91987.32594871665</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871665</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871665</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871665</v>
-      </c>
       <c r="J5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871669</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-37944.09944680211</v>
+        <v>-37944.09944680173</v>
       </c>
       <c r="C6" t="n">
         <v>552023.7797677425</v>
       </c>
       <c r="D6" t="n">
-        <v>552023.7797677423</v>
+        <v>552023.7797677425</v>
       </c>
       <c r="E6" t="n">
-        <v>122210.1052163269</v>
+        <v>123087.2373500767</v>
       </c>
       <c r="F6" t="n">
-        <v>647370.1416932234</v>
+        <v>648247.273826973</v>
       </c>
       <c r="G6" t="n">
-        <v>647370.1416932233</v>
+        <v>648247.2738269727</v>
       </c>
       <c r="H6" t="n">
-        <v>647370.1416932234</v>
+        <v>648247.2738269732</v>
       </c>
       <c r="I6" t="n">
-        <v>647370.1416932233</v>
+        <v>648247.2738269726</v>
       </c>
       <c r="J6" t="n">
-        <v>470946.9225006303</v>
+        <v>471824.0546343799</v>
       </c>
       <c r="K6" t="n">
-        <v>647370.1416932232</v>
+        <v>648247.2738269727</v>
       </c>
       <c r="L6" t="n">
-        <v>647370.1416932229</v>
+        <v>648247.2738269723</v>
       </c>
       <c r="M6" t="n">
-        <v>512569.1264593862</v>
+        <v>513446.2585931355</v>
       </c>
       <c r="N6" t="n">
-        <v>647370.1416932232</v>
+        <v>648247.2738269729</v>
       </c>
       <c r="O6" t="n">
-        <v>647370.1416932232</v>
+        <v>648247.2738269726</v>
       </c>
       <c r="P6" t="n">
-        <v>647370.1416932232</v>
+        <v>648247.2738269729</v>
       </c>
     </row>
   </sheetData>
@@ -26709,7 +26709,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26740,46 +26740,46 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370138</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990168</v>
+        <v>540.926370499017</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27548,10 +27548,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>107.5829646831825</v>
+        <v>120.1051426060689</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27630,7 +27630,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>396.2063092315957</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>144.9821417233065</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27788,16 +27788,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>136.7057146380968</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>120.4387434050066</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27861,7 +27861,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>375.9469818809424</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27909,7 +27909,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>245.2407793169701</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>149.2278925609829</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -29814,7 +29814,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>-3.126388037344441e-12</v>
+        <v>-1.307398633798584e-12</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K20" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304442</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298632</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336902</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
         <v>34.18755300444946</v>
@@ -32709,40 +32709,40 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304442</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565521</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,7 +32785,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
@@ -32794,19 +32794,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458551</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
         <v>227.9948068710957</v>
@@ -32815,13 +32815,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361493</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298632</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
         <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
         <v>34.18755300444946</v>
@@ -32946,40 +32946,40 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304442</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565521</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33022,7 +33022,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
@@ -33031,19 +33031,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458551</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
         <v>227.9948068710957</v>
@@ -33052,13 +33052,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361493</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298632</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
         <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
         <v>34.18755300444946</v>
@@ -33183,40 +33183,40 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304442</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565521</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33259,7 +33259,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
@@ -33268,19 +33268,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458551</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
         <v>227.9948068710957</v>
@@ -33289,13 +33289,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361493</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298632</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
         <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
         <v>34.18755300444946</v>
@@ -33420,40 +33420,40 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304442</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565521</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33496,7 +33496,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
@@ -33505,19 +33505,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458551</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
         <v>227.9948068710957</v>
@@ -33526,13 +33526,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361493</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298632</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
         <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P34" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
         <v>34.18755300444946</v>
@@ -33657,40 +33657,40 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304442</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565521</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33733,7 +33733,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
@@ -33742,19 +33742,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458551</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
         <v>227.9948068710957</v>
@@ -33763,13 +33763,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361493</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298632</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
         <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P37" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
         <v>34.18755300444946</v>
@@ -33894,40 +33894,40 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304442</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565521</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33970,7 +33970,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
@@ -33979,19 +33979,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458551</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
         <v>227.9948068710957</v>
@@ -34000,13 +34000,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361493</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298632</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
         <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P40" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
         <v>34.18755300444946</v>
@@ -34131,40 +34131,40 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304442</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565521</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34207,7 +34207,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
@@ -34216,19 +34216,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458551</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
         <v>227.9948068710957</v>
@@ -34237,13 +34237,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361493</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298632</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
         <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P43" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
         <v>34.18755300444946</v>
@@ -34368,40 +34368,40 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304442</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565521</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34444,7 +34444,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
@@ -34453,19 +34453,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458551</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
         <v>227.9948068710957</v>
@@ -34474,13 +34474,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361493</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H46" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298632</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
         <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P46" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34792,13 +34792,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>515.9012490932197</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535575</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>278.7330645958058</v>
+        <v>278.7330645958066</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178378</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507419</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303323</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>180.0507982277208</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>278.7330645958066</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178378</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507419</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>484.7652115523304</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686868</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>526.9295015768298</v>
+        <v>526.9295015768315</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686869</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556557</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523302</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686869</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
@@ -36524,19 +36524,19 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303321</v>
+        <v>528.6897561303314</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523302</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686869</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
@@ -36761,19 +36761,19 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,28 +36831,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
         <v>59.82538970349582</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523302</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686869</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
@@ -36998,19 +36998,19 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523302</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686869</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
@@ -37235,19 +37235,19 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221098</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091989</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
@@ -37472,19 +37472,19 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221098</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523302</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686869</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
@@ -37709,19 +37709,19 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349582</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523302</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686869</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
@@ -37946,19 +37946,19 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221098</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523302</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686869</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
@@ -38183,19 +38183,19 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
